--- a/docs/Descriptives_sp_Control.xlsx
+++ b/docs/Descriptives_sp_Control.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,259 +1097,259 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pseudotime</t>
+          <t>Pseudotime_1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.56 (2.88)  </t>
+          <t xml:space="preserve">  5.67 (3.78)  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9.88 (2.63)  </t>
+          <t xml:space="preserve">  4.63 (3.33)  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.033  </t>
+          <t xml:space="preserve">  0.086  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>Pseudotime_2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  4.63 (2.81)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  4.58 (3.13)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.795  </t>
+          <t xml:space="preserve">  0.916  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>Pseudotime_3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  375 (74.3%)  </t>
+          <t xml:space="preserve">  4.35 (2.84)  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  34 (77.3%)   </t>
+          <t xml:space="preserve">  3.67 (2.26)  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.120  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  130 (25.7%)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (22.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.795  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>161418 (112945)</t>
+          <t xml:space="preserve">  375 (74.3%)  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>214465 (106144)</t>
+          <t xml:space="preserve">  34 (77.3%)   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>161849 (113014)</t>
+          <t xml:space="preserve">  130 (25.7%)  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>214704 (106166)</t>
+          <t xml:space="preserve">  10 (22.7%)   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.76 (1.27)  </t>
+          <t>161418 (112945)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.14 (2.04)  </t>
+          <t>214465 (106144)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.05 (1.34)  </t>
+          <t>161849 (113014)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.20 (2.00)  </t>
+          <t>214704 (106166)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  1.76 (1.27)  </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  3.14 (2.04)  </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (11.5%)   </t>
+          <t xml:space="preserve">  2.05 (1.34)  </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (4.55%)   </t>
+          <t xml:space="preserve">  4.20 (2.00)  </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  64 (12.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (4.55%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  75 (14.9%)   </t>
+          <t xml:space="preserve">  58 (11.5%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (2.27%)   </t>
+          <t xml:space="preserve">   2 (4.55%)   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (3.76%)   </t>
+          <t xml:space="preserve">  64 (12.7%)   </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (2.27%)   </t>
+          <t xml:space="preserve">   2 (4.55%)   </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (1.98%)   </t>
+          <t xml:space="preserve">  75 (14.9%)   </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (6.82%)   </t>
+          <t xml:space="preserve">   1 (2.27%)   </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (16.8%)   </t>
+          <t xml:space="preserve">  19 (3.76%)   </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (27.3%)   </t>
+          <t xml:space="preserve">   1 (2.27%)   </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1427,12 +1427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (11.5%)   </t>
+          <t xml:space="preserve">  10 (1.98%)   </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1449,17 +1449,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93 (18.4%)   </t>
+          <t xml:space="preserve">  85 (16.8%)   </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (38.6%)   </t>
+          <t xml:space="preserve">  12 (27.3%)   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1471,20 +1471,64 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t xml:space="preserve">    409</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  58 (11.5%)   </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   3 (6.82%)   </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  93 (18.4%)   </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  17 (38.6%)   </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">  43 (8.51%)   </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">   3 (6.82%)   </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives_sp_Control.xlsx
+++ b/docs/Descriptives_sp_Control.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,259 +1097,259 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pseudotime_1</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5.67 (3.78)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.63 (3.33)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.086  </t>
+          <t xml:space="preserve">  0.795  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pseudotime_2</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.63 (2.81)  </t>
+          <t xml:space="preserve">  375 (74.3%)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.58 (3.13)  </t>
+          <t xml:space="preserve">  34 (77.3%)   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.916  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pseudotime_3</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.35 (2.84)  </t>
+          <t xml:space="preserve">  130 (25.7%)  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.67 (2.26)  </t>
+          <t xml:space="preserve">  10 (22.7%)   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.120  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>161418 (112945)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>214465 (106144)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.795  </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  375 (74.3%)  </t>
+          <t>161849 (113014)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  34 (77.3%)   </t>
+          <t>214704 (106166)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  130 (25.7%)  </t>
+          <t xml:space="preserve">  1.76 (1.27)  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (22.7%)   </t>
+          <t xml:space="preserve">  3.14 (2.04)  </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>161418 (112945)</t>
+          <t xml:space="preserve">  2.05 (1.34)  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>214465 (106144)</t>
+          <t xml:space="preserve">  4.20 (2.00)  </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>161849 (113014)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>214704 (106166)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.76 (1.27)  </t>
+          <t xml:space="preserve">  58 (11.5%)   </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.14 (2.04)  </t>
+          <t xml:space="preserve">   2 (4.55%)   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.05 (1.34)  </t>
+          <t xml:space="preserve">  64 (12.7%)   </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.20 (2.00)  </t>
+          <t xml:space="preserve">   2 (4.55%)   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  75 (14.9%)   </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   1 (2.27%)   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (11.5%)   </t>
+          <t xml:space="preserve">  19 (3.76%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (4.55%)   </t>
+          <t xml:space="preserve">   1 (2.27%)   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  64 (12.7%)   </t>
+          <t xml:space="preserve">  10 (1.98%)   </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (4.55%)   </t>
+          <t xml:space="preserve">   3 (6.82%)   </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  75 (14.9%)   </t>
+          <t xml:space="preserve">  85 (16.8%)   </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (2.27%)   </t>
+          <t xml:space="preserve">  12 (27.3%)   </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    409</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (3.76%)   </t>
+          <t xml:space="preserve">  58 (11.5%)   </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (2.27%)   </t>
+          <t xml:space="preserve">   3 (6.82%)   </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1427,17 +1427,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    457</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (1.98%)   </t>
+          <t xml:space="preserve">  93 (18.4%)   </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (6.82%)   </t>
+          <t xml:space="preserve">  17 (38.6%)   </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1449,86 +1449,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    461</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (16.8%)   </t>
+          <t xml:space="preserve">  43 (8.51%)   </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (27.3%)   </t>
+          <t xml:space="preserve">   3 (6.82%)   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    409</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  58 (11.5%)   </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3 (6.82%)   </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    457</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  93 (18.4%)   </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  17 (38.6%)   </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    461</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  43 (8.51%)   </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3 (6.82%)   </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
